--- a/src/main/resources/static/templates/template_for_cp.xlsx
+++ b/src/main/resources/static/templates/template_for_cp.xlsx
@@ -82,7 +82,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
+          <t>注意:</t>
         </r>
         <r>
           <rPr>
@@ -93,7 +93,33 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1.收货方名称必须与联系人档案中的名称保持一致</t>
+1.收货方名称必须与联系人档案中的名称保持一致
+2.替换成正常的【收货方名称】</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>提示:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对应中关村店的货品发货数量。
+例如：XXXXX中关村店 猪头 发货数量 50袋</t>
         </r>
       </text>
     </comment>
@@ -102,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>货品编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,18 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收货方1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货方2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货方3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HP0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +163,38 @@
   </si>
   <si>
     <t>箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXX中关村店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众品朝阳店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众品北苑店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加更多…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +241,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -216,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -239,17 +298,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -554,15 +628,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -579,46 +659,65 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="1">
         <v>2.8</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="4">
+        <v>10</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4">
+        <v>50</v>
+      </c>
+      <c r="G3" s="4">
+        <v>20</v>
+      </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -628,7 +727,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -638,7 +737,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -648,7 +747,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -658,7 +757,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -668,7 +767,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -678,7 +777,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
